--- a/api/src/data/planning_EFREI.xlsx
+++ b/api/src/data/planning_EFREI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <x:si>
     <x:t>Poule</x:t>
   </x:si>
@@ -40,63 +40,6 @@
   </x:si>
   <x:si>
     <x:t>Commentaires</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BBME2 BAS B - BASKET BALL (NIVEAU 2 : GRANDES ECOLES - M)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/02/2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EFREI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ECE PARIS (2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LECLAIRE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/03/2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EPF CACHAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>US METRO 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16/03/2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SCIENCES PO ST GERMAIN EN LAYE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KELLERMANN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30/03/2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ECOLE POLYTECHNIQUE (2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>T5 (Polytechnique)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13/04/2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ESPCI</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -473,18 +416,14 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H11"/>
+  <x:dimension ref="A1:H6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="9" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="16.010625" style="1" customWidth="1"/>
-    <x:col min="2" max="3" width="12.710625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="13.720625" style="1" customWidth="1"/>
-    <x:col min="5" max="6" width="16.010625" style="1" customWidth="1"/>
-    <x:col min="7" max="7" width="12.710625" style="1" customWidth="1"/>
+    <x:col min="1" max="7" width="12.710625" style="1" customWidth="1"/>
     <x:col min="8" max="8" width="15.060625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -514,111 +453,11 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A2" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A3" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A4" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A5" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A6" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F6" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="8" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="9" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="10" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="11" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="3" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="4" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="5" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="6" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:autoFilter ref="A1:H1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
